--- a/stock_historical_data/1wk/CENTUM.NS.xlsx
+++ b/stock_historical_data/1wk/CENTUM.NS.xlsx
@@ -57919,7 +57919,9 @@
       <c r="P1084" t="n">
         <v>0</v>
       </c>
-      <c r="Q1084" t="inlineStr"/>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CENTUM.NS.xlsx
+++ b/stock_historical_data/1wk/CENTUM.NS.xlsx
@@ -61229,7 +61229,9 @@
       <c r="Q1085" t="n">
         <v>2</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CENTUM.NS.xlsx
+++ b/stock_historical_data/1wk/CENTUM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1085"/>
+  <dimension ref="A1:R1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61233,6 +61233,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>1715.75</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>1760.699951171875</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>1677.150024414062</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>1677.150024414062</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>74747</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>1679.5</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>1691.199951171875</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>1645.199951171875</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>1645.199951171875</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>58790</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/CENTUM.NS.xlsx
+++ b/stock_historical_data/1wk/CENTUM.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1087"/>
+  <dimension ref="A1:R1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -61165,7 +61165,7 @@
         <v>23</v>
       </c>
       <c r="O1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1084" t="n">
         <v>0</v>
@@ -61285,7 +61285,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61339,7 +61341,1829 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>1634.072483188041</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>1695.961605947759</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>1608.118980095256</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>1663.22021484375</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>108008</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>1679.690754734922</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>1715.925887665522</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>1620.846224605521</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>1644.30419921875</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>110208</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>1652.439597994957</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>1662.022405512193</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>1592.147589664833</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>1629.081420898438</v>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="n">
+        <v>54315</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>1587.156530289338</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>1656.981386764723</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>1547.228064118538</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>1637.666015625</v>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="n">
+        <v>83309</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>1659.976055768471</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>1750.863277494374</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>1638.115317573268</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>1688.924194335938</v>
+      </c>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="n">
+        <v>103863</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>1658.099975585938</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>1687.550048828125</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>1600.150024414062</v>
+      </c>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="n">
+        <v>58359</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>1615.599975585938</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>1487.050048828125</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>1560.849975585938</v>
+      </c>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="n">
+        <v>132908</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>1566.150024414062</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>1506.699951171875</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>1561.449951171875</v>
+      </c>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="n">
+        <v>53687</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>1519</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>1704.900024414062</v>
+      </c>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="n">
+        <v>107291</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>1713.550048828125</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>1690.099975585938</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>1812.349975585938</v>
+      </c>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="n">
+        <v>282712</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>1818</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>1705.25</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>1752.199951171875</v>
+      </c>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="n">
+        <v>80257</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>1762.449951171875</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>1858.050048828125</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>1704.050048828125</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>1749.300048828125</v>
+      </c>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="n">
+        <v>91268</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>1759.300048828125</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>1720.599975585938</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>1852.900024414062</v>
+      </c>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="n">
+        <v>185072</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>1859.050048828125</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>1763.949951171875</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>1858.699951171875</v>
+      </c>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="n">
+        <v>60473</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>1855</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>1879</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>1720.199951171875</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>1774.400024414062</v>
+      </c>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="n">
+        <v>54208</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>1785.099975585938</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>1732.25</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>1863.75</v>
+      </c>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="n">
+        <v>69362</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>1870.199951171875</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>1881</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>1651.5</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1669.400024414062</v>
+      </c>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="n">
+        <v>53248</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1669.400024414062</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>1859.900024414062</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>1606.300048828125</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>1829.199951171875</v>
+      </c>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="n">
+        <v>52216</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>1801.75</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>1761.349975585938</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>1789.050048828125</v>
+      </c>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="n">
+        <v>52205</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>1787.699951171875</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>1792.449951171875</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1607.699951171875</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>1636.099975585938</v>
+      </c>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="n">
+        <v>46280</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>1693.349975585938</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>1620.599975585938</v>
+      </c>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="n">
+        <v>60750</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>1642.949951171875</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>1668</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>1424.199951171875</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>1569.699951171875</v>
+      </c>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="n">
+        <v>318511</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>1739.449951171875</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>1565</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>1667.599975585938</v>
+      </c>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="n">
+        <v>106262</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>1690.800048828125</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>1645.849975585938</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>2271.85009765625</v>
+      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="n">
+        <v>764816</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>2160.10009765625</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>2390.050048828125</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>2064.050048828125</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>2131.35009765625</v>
+      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="n">
+        <v>416439</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>2168.64990234375</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>2281.5</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>2136.300048828125</v>
+      </c>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="n">
+        <v>103362</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>2147.449951171875</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>2219.949951171875</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>2011.199951171875</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>2119.75</v>
+      </c>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="n">
+        <v>99835</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>2130.89990234375</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>2239.449951171875</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>1870.400024414062</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>1893.25</v>
+      </c>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="n">
+        <v>142272</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>1904.949951171875</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>1841.300048828125</v>
+      </c>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="n">
+        <v>48425</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>1882.949951171875</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>1768.5</v>
+      </c>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="n">
+        <v>56002</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>1792.650024414062</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>1632</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>1722.75</v>
+      </c>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="n">
+        <v>52703</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>1749.599975585938</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>1861.349975585938</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>1685.599975585938</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>1820.849975585938</v>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="n">
+        <v>70901</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>1464.699951171875</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>1554.949951171875</v>
+      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="n">
+        <v>120705</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>1448.5</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>1238.550048828125</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>1292.349975585938</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>162218</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>1288.800048828125</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>1314.949951171875</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>1188.650024414062</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>1203.599975585938</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>44382</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/CENTUM.NS.xlsx
+++ b/stock_historical_data/1wk/CENTUM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1122"/>
+  <dimension ref="A1:R1131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -61395,7 +61395,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61447,7 +61449,9 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61499,7 +61503,9 @@
       <c r="Q1090" t="n">
         <v>1</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61551,7 +61557,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61603,7 +61611,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="2" t="n">
@@ -61655,7 +61665,9 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -61707,7 +61719,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61759,7 +61773,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61811,7 +61827,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61863,7 +61881,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61915,7 +61935,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -61967,7 +61989,9 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62019,7 +62043,9 @@
       <c r="Q1100" t="n">
         <v>1</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -62071,7 +62097,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62123,7 +62151,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62175,7 +62205,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62227,7 +62259,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62279,7 +62313,9 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62331,7 +62367,9 @@
       <c r="Q1106" t="n">
         <v>2</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62383,7 +62421,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62435,7 +62475,9 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62487,7 +62529,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62539,7 +62583,9 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62591,7 +62637,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62643,7 +62691,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62695,7 +62745,9 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114">
       <c r="A1114" s="2" t="n">
@@ -62747,7 +62799,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62799,7 +62853,9 @@
       <c r="Q1115" t="n">
         <v>1</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62851,7 +62907,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -62903,7 +62961,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -62955,7 +63015,9 @@
       <c r="Q1118" t="n">
         <v>2</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63007,7 +63069,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63059,7 +63123,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63111,7 +63177,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63163,7 +63231,477 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>1271.400024414062</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>1140.300048828125</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>1170.699951171875</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>93192</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>1358</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>1282.550048828125</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>532564</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>1524.900024414062</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>1275</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>1482.900024414062</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>298056</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>1486.949951171875</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>1486.949951171875</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>1594.75</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>177442</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>1594.75</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>1552.5</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>1569.150024414062</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>77841</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>1433.949951171875</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>1707.949951171875</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>1368.599975585938</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>1625.150024414062</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>107824</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>1695</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>1778.800048828125</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>1649.900024414062</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>1761.800048828125</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>99587</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>1586.900024414062</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>1621.199951171875</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>110630</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>1605.099975585938</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>1605.099975585938</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>1676.300048828125</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>60952</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
